--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Time_to_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDE2F4D-ECB0-4B2E-AC63-EFB4BBFC66ED}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B685A741-D078-444F-B324-C0A302FC597F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1324.6875</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -462,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1324.6875</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B685A741-D078-444F-B324-C0A302FC597F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418C5269-8B98-419A-BFEA-C5EDF5A2D351}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>49291.547100000003</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -466,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1324.6875</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -478,7 +474,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>1</v>
+        <v>37.209943552724702</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418C5269-8B98-419A-BFEA-C5EDF5A2D351}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E655A772-D258-4F38-A389-0E53C9AA8138}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49291.547100000003</v>
+        <v>110905.980975</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -474,7 +478,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>37.209943552724702</v>
+        <v>83.722372993630572</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E655A772-D258-4F38-A389-0E53C9AA8138}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D688C49-0FE4-45BE-82AE-2AE798B4C2B3}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D688C49-0FE4-45BE-82AE-2AE798B4C2B3}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11E45EA-9917-41B3-BE0A-5E83AB5EA1AE}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1324.6875</v>
+        <v>119221.875</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>83.722372993630572</v>
+        <v>0.93024858881811745</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11E45EA-9917-41B3-BE0A-5E83AB5EA1AE}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92399564-BF57-4319-A9B2-DDCC9FB44874}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>110905.980975</v>
+        <v>88724.784780000002</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -478,7 +474,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>0.93024858881811745</v>
+        <v>0.744198871054494</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92399564-BF57-4319-A9B2-DDCC9FB44874}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B143CDD-E41D-4000-813F-1F89755095C6}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>88724.784780000002</v>
+        <v>14779.98</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -462,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>119221.875</v>
+        <v>1192.21875</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -474,7 +478,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>0.744198871054494</v>
+        <v>12.397037037037038</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B143CDD-E41D-4000-813F-1F89755095C6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DECAEF3-391A-4A98-8909-A6386E17DA38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14779.98</v>
+        <v>36949.920440039998</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -478,7 +474,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>12.397037037037038</v>
+        <v>30.992567798518518</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/Time_to_Cool/Time_to_Cool.xlsx
+++ b/Time_to_Cool/Time_to_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Time_to_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DECAEF3-391A-4A98-8909-A6386E17DA38}"/>
+  <xr:revisionPtr revIDLastSave="4347" documentId="8_{EE419051-4E08-4B4D-8988-376DDF5F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D631A57-EBD1-4A84-A433-32C40D55348C}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{9B70E5BA-CDD1-43FB-AA4D-520C22E9AD9C}"/>
   </bookViews>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36949.920440039998</v>
+        <v>73900.5650991</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -462,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1192.21875</v>
+        <v>662.34375</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -474,7 +478,7 @@
       </c>
       <c r="B5">
         <f>B3/B4</f>
-        <v>30.992567798518518</v>
+        <v>111.57433749333333</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
